--- a/今日收费.xlsx
+++ b/今日收费.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -419,8 +419,13 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUM(A1:A11)</f>
-        <v>7300</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f>SUM(A1:A12)</f>
+        <v>7900</v>
       </c>
     </row>
   </sheetData>

--- a/今日收费.xlsx
+++ b/今日收费.xlsx
@@ -354,78 +354,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <f>SUM(A1:A12)</f>
-        <v>7900</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
